--- a/tests/data/stock.xlsx
+++ b/tests/data/stock.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SMWanStock\tests\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8610"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet01" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet01" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="828">
   <si>
     <t>买卖操作</t>
   </si>
@@ -2488,31 +2484,40 @@
   </si>
   <si>
     <t>Wed Apr  4 13:53:33 2018</t>
+  </si>
+  <si>
+    <t>37.74</t>
+  </si>
+  <si>
+    <t>Wed Apr  4 14:15:03 2018</t>
+  </si>
+  <si>
+    <t>300721</t>
+  </si>
+  <si>
+    <t>34.41</t>
+  </si>
+  <si>
+    <t>Wed Apr  4 14:56:51 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -2528,24 +2533,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -2833,16 +2829,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E467"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="F473" sqref="F473"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>39</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>39</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>39</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>39</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>39</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>39</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>39</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>39</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>39</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>39</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>39</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>39</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>39</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>39</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>39</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>39</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>39</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>39</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>39</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>39</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>39</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>39</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>39</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>39</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>39</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>39</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>39</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>39</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>39</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>39</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>39</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>39</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>39</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>39</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>39</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>39</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>39</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>39</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>39</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>39</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>39</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>39</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>39</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>39</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>39</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>39</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>39</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>39</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>39</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>39</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>39</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>39</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>39</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>39</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>39</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>39</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>39</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>39</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>39</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>39</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>39</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>39</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>39</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>39</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>39</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>5</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>5</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>39</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>39</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>39</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>5</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>39</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>39</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>39</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>39</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>39</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>39</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>39</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>39</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>39</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>39</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>39</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>39</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>5</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>39</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>39</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>39</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>39</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>39</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>39</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>39</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>5</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>5</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>39</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>39</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>39</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>39</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>39</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>39</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>5</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>39</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>5</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>39</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>5</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>39</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>39</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>39</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>5</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>39</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>39</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:5">
       <c r="A336" t="s">
         <v>39</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>39</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>5</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>5</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>39</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>39</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>39</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>39</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>39</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>39</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:5">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:5">
       <c r="A349" t="s">
         <v>39</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:5">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:5">
       <c r="A351" t="s">
         <v>39</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:5">
       <c r="A352" t="s">
         <v>39</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:5">
       <c r="A353" t="s">
         <v>5</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:5">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:5">
       <c r="A355" t="s">
         <v>39</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:5">
       <c r="A356" t="s">
         <v>39</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:5">
       <c r="A357" t="s">
         <v>5</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:5">
       <c r="A358" t="s">
         <v>5</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:5">
       <c r="A359" t="s">
         <v>5</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:5">
       <c r="A360" t="s">
         <v>39</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:5">
       <c r="A361" t="s">
         <v>39</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:5">
       <c r="A362" t="s">
         <v>39</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:5">
       <c r="A363" t="s">
         <v>39</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:5">
       <c r="A364" t="s">
         <v>39</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:5">
       <c r="A365" t="s">
         <v>5</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:5">
       <c r="A366" t="s">
         <v>5</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:5">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:5">
       <c r="A368" t="s">
         <v>39</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:5">
       <c r="A369" t="s">
         <v>39</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:5">
       <c r="A370" t="s">
         <v>39</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:5">
       <c r="A371" t="s">
         <v>39</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:5">
       <c r="A372" t="s">
         <v>39</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:5">
       <c r="A373" t="s">
         <v>5</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:5">
       <c r="A374" t="s">
         <v>5</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:5">
       <c r="A375" t="s">
         <v>39</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:5">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:5">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:5">
       <c r="A378" t="s">
         <v>39</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:5">
       <c r="A379" t="s">
         <v>39</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:5">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:5">
       <c r="A381" t="s">
         <v>39</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:5">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:5">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:5">
       <c r="A384" t="s">
         <v>5</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5">
       <c r="A385" t="s">
         <v>39</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:5">
       <c r="A386" t="s">
         <v>39</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:5">
       <c r="A387" t="s">
         <v>5</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:5">
       <c r="A388" t="s">
         <v>39</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:5">
       <c r="A389" t="s">
         <v>39</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:5">
       <c r="A390" t="s">
         <v>39</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:5">
       <c r="A391" t="s">
         <v>39</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:5">
       <c r="A392" t="s">
         <v>39</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:5">
       <c r="A393" t="s">
         <v>39</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:5">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:5">
       <c r="A395" t="s">
         <v>5</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:5">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:5">
       <c r="A397" t="s">
         <v>39</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:5">
       <c r="A398" t="s">
         <v>39</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:5">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:5">
       <c r="A400" t="s">
         <v>5</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:5">
       <c r="A401" t="s">
         <v>39</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:5">
       <c r="A402" t="s">
         <v>5</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:5">
       <c r="A403" t="s">
         <v>39</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:5">
       <c r="A404" t="s">
         <v>39</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:5">
       <c r="A405" t="s">
         <v>39</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:5">
       <c r="A406" t="s">
         <v>39</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:5">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:5">
       <c r="A408" t="s">
         <v>39</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:5">
       <c r="A409" t="s">
         <v>39</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:5">
       <c r="A410" t="s">
         <v>39</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:5">
       <c r="A411" t="s">
         <v>5</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:5">
       <c r="A412" t="s">
         <v>39</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:5">
       <c r="A413" t="s">
         <v>39</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:5">
       <c r="A414" t="s">
         <v>39</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:5">
       <c r="A415" t="s">
         <v>5</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:5">
       <c r="A416" t="s">
         <v>5</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:5">
       <c r="A417" t="s">
         <v>39</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:5">
       <c r="A418" t="s">
         <v>39</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:5">
       <c r="A419" t="s">
         <v>39</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:5">
       <c r="A420" t="s">
         <v>39</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:5">
       <c r="A421" t="s">
         <v>5</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:5">
       <c r="A422" t="s">
         <v>5</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:5">
       <c r="A423" t="s">
         <v>39</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:5">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:5">
       <c r="A425" t="s">
         <v>39</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:5">
       <c r="A426" t="s">
         <v>39</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:5">
       <c r="A427" t="s">
         <v>39</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:5">
       <c r="A428" t="s">
         <v>39</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:5">
       <c r="A429" t="s">
         <v>5</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:5">
       <c r="A430" t="s">
         <v>5</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:5">
       <c r="A431" t="s">
         <v>39</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:5">
       <c r="A432" t="s">
         <v>39</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:5">
       <c r="A433" t="s">
         <v>39</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:5">
       <c r="A434" t="s">
         <v>5</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:5">
       <c r="A435" t="s">
         <v>5</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:5">
       <c r="A436" t="s">
         <v>5</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:5">
       <c r="A437" t="s">
         <v>5</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:5">
       <c r="A438" t="s">
         <v>5</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:5">
       <c r="A439" t="s">
         <v>5</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:5">
       <c r="A440" t="s">
         <v>39</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:5">
       <c r="A441" t="s">
         <v>5</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:5">
       <c r="A442" t="s">
         <v>39</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:5">
       <c r="A443" t="s">
         <v>39</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:5">
       <c r="A444" t="s">
         <v>5</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:5">
       <c r="A445" t="s">
         <v>39</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:5">
       <c r="A446" t="s">
         <v>39</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:5">
       <c r="A447" t="s">
         <v>5</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:5">
       <c r="A448" t="s">
         <v>39</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5">
       <c r="A449" t="s">
         <v>5</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:5">
       <c r="A450" t="s">
         <v>39</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:5">
       <c r="A451" t="s">
         <v>39</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:5">
       <c r="A452" t="s">
         <v>39</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:5">
       <c r="A453" t="s">
         <v>5</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:5">
       <c r="A454" t="s">
         <v>5</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:5">
       <c r="A455" t="s">
         <v>5</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:5">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:5">
       <c r="A457" t="s">
         <v>39</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:5">
       <c r="A458" t="s">
         <v>39</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:5">
       <c r="A459" t="s">
         <v>39</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:5">
       <c r="A460" t="s">
         <v>5</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:5">
       <c r="A461" t="s">
         <v>5</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:5">
       <c r="A462" t="s">
         <v>5</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:5">
       <c r="A463" t="s">
         <v>39</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:5">
       <c r="A464" t="s">
         <v>39</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:5">
       <c r="A465" t="s">
         <v>5</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:5">
       <c r="A466" t="s">
         <v>5</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:5">
       <c r="A467" t="s">
         <v>39</v>
       </c>
@@ -10781,9 +10781,41 @@
         <v>822</v>
       </c>
     </row>
+    <row r="468" spans="1:5">
+      <c r="A468" t="s">
+        <v>5</v>
+      </c>
+      <c r="B468" t="s">
+        <v>802</v>
+      </c>
+      <c r="C468" t="s">
+        <v>823</v>
+      </c>
+      <c r="D468" t="s">
+        <v>108</v>
+      </c>
+      <c r="E468" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469" t="s">
+        <v>825</v>
+      </c>
+      <c r="C469" t="s">
+        <v>826</v>
+      </c>
+      <c r="D469" t="s">
+        <v>29</v>
+      </c>
+      <c r="E469" t="s">
+        <v>827</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>